--- a/upload/allowance_error.xlsx
+++ b/upload/allowance_error.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>errors</t>
   </si>
@@ -97,16 +97,13 @@
     <t>tax_rate</t>
   </si>
   <si>
-    <t>E06-折讓品名「商品A」在原發票中找不到對應品名</t>
-  </si>
-  <si>
-    <t>E06-折讓品名「商品Q」在原發票中找不到對應品名</t>
-  </si>
-  <si>
-    <t>87637806</t>
-  </si>
-  <si>
-    <t>AL202507090002</t>
+    <t>E03-資料重複：此筆資料已存在</t>
+  </si>
+  <si>
+    <t>87637805</t>
+  </si>
+  <si>
+    <t>AL202507090001</t>
   </si>
   <si>
     <t>ABC公司</t>
@@ -115,25 +112,13 @@
     <t>AB00000009</t>
   </si>
   <si>
-    <t>AB00000011</t>
-  </si>
-  <si>
     <t>商品X</t>
   </si>
   <si>
-    <t>商品A</t>
-  </si>
-  <si>
-    <t>商品Q</t>
-  </si>
-  <si>
-    <t>商品Y</t>
-  </si>
-  <si>
     <t>個</t>
   </si>
   <si>
-    <t>TW002025070987637806</t>
+    <t>TW002025070987637805</t>
   </si>
   <si>
     <t>65330715</t>
@@ -498,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,14 +573,17 @@
       </c>
     </row>
     <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
       <c r="B2">
         <v>11408</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>45847</v>
@@ -604,13 +592,13 @@
         <v>84834924</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>3541</v>
+        <v>1468</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -619,34 +607,34 @@
         <v>45846</v>
       </c>
       <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
       <c r="R2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>750</v>
+        <v>1260</v>
       </c>
       <c r="X2">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -660,10 +648,10 @@
         <v>11408</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>45847</v>
@@ -672,184 +660,51 @@
         <v>84834924</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M3">
-        <v>3541</v>
+        <v>1468</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" s="2">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3">
+        <v>104</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>208</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
         <v>35</v>
       </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3">
-        <v>73</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>584</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>40</v>
-      </c>
       <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>11408</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45847</v>
-      </c>
-      <c r="H4">
-        <v>84834924</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>38</v>
-      </c>
-      <c r="M4">
-        <v>3541</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45847</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4">
-        <v>206</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>618</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="B5">
-        <v>11408</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45847</v>
-      </c>
-      <c r="H5">
-        <v>84834924</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5">
-        <v>38</v>
-      </c>
-      <c r="M5">
-        <v>3541</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45847</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5">
-        <v>227</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>1589</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5">
         <v>0</v>
       </c>
     </row>
